--- a/1. StorageDatas/schemas.xlsx
+++ b/1. StorageDatas/schemas.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Formations\cegefos\2018-03-19_certifications\1. Stockage des datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Formations\cegefos\2018-03-19_certifications\git_work\bigDataGr1\1. StorageDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
-    <sheet name="commits" sheetId="1" r:id="rId1"/>
-    <sheet name="contents" sheetId="2" r:id="rId2"/>
-    <sheet name="files" sheetId="3" r:id="rId3"/>
-    <sheet name="licenses" sheetId="4" r:id="rId4"/>
-    <sheet name=" sample_commits" sheetId="5" r:id="rId5"/>
-    <sheet name="sample_contents" sheetId="6" r:id="rId6"/>
-    <sheet name="sample_files" sheetId="7" r:id="rId7"/>
-    <sheet name="sample_repos" sheetId="8" r:id="rId8"/>
+    <sheet name="suivi" sheetId="9" r:id="rId1"/>
+    <sheet name="commits" sheetId="1" r:id="rId2"/>
+    <sheet name="contents" sheetId="2" r:id="rId3"/>
+    <sheet name="files" sheetId="3" r:id="rId4"/>
+    <sheet name="licenses" sheetId="4" r:id="rId5"/>
+    <sheet name=" sample_commits" sheetId="5" r:id="rId6"/>
+    <sheet name="sample_contents" sheetId="6" r:id="rId7"/>
+    <sheet name="sample_files" sheetId="7" r:id="rId8"/>
+    <sheet name="sample_repos" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
   <si>
     <t>|- parent : STRING</t>
   </si>
@@ -373,12 +374,51 @@
   <si>
     <t>Leaf Field / Repeated</t>
   </si>
+  <si>
+    <t>Suivi des modification</t>
+  </si>
+  <si>
+    <t>Indice</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Rédacteur</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Création du document</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>DAB</t>
+  </si>
+  <si>
+    <t>ADD Tables : commits, contents, files, licenses, sample_commits, sample_contents, sample_files, sample_repos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +459,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -434,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -457,11 +520,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -481,6 +746,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,6 +1154,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="20">
+        <v>43155</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="20">
+        <v>43156</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -1083,7 +1688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D11"/>
   <sheetViews>
@@ -1167,7 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D7"/>
   <sheetViews>
@@ -1231,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D3"/>
   <sheetViews>
@@ -1272,11 +1877,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1552,7 +2157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D11"/>
   <sheetViews>
@@ -1636,7 +2241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D6"/>
   <sheetViews>
@@ -1700,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E3"/>
   <sheetViews>

--- a/1. StorageDatas/schemas.xlsx
+++ b/1. StorageDatas/schemas.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Formations\cegefos\2018-03-19_certifications\git_work\bigDataGr1\1. StorageDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Formations\cegefos\2018-03-19_certifications\gitwork\bigDataGr1\1. StorageDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="suivi" sheetId="9" r:id="rId1"/>
-    <sheet name="commits" sheetId="1" r:id="rId2"/>
-    <sheet name="contents" sheetId="2" r:id="rId3"/>
-    <sheet name="files" sheetId="3" r:id="rId4"/>
-    <sheet name="licenses" sheetId="4" r:id="rId5"/>
-    <sheet name=" sample_commits" sheetId="5" r:id="rId6"/>
-    <sheet name="sample_contents" sheetId="6" r:id="rId7"/>
-    <sheet name="sample_files" sheetId="7" r:id="rId8"/>
-    <sheet name="sample_repos" sheetId="8" r:id="rId9"/>
+    <sheet name="repos_demo" sheetId="8" r:id="rId2"/>
+    <sheet name="languages" sheetId="11" r:id="rId3"/>
+    <sheet name="licenses" sheetId="4" r:id="rId4"/>
+    <sheet name="commits" sheetId="1" r:id="rId5"/>
+    <sheet name="files" sheetId="3" r:id="rId6"/>
+    <sheet name="contents" sheetId="2" r:id="rId7"/>
+    <sheet name="githubarchive" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="124">
   <si>
     <t>|- parent : STRING</t>
   </si>
@@ -236,41 +235,148 @@
     <t>|-  license : STRING</t>
   </si>
   <si>
-    <t>|-  parent : STRING</t>
-  </si>
-  <si>
-    <t>|   |-  key : STRING</t>
-  </si>
-  <si>
-    <t>|   |-  value : STRING</t>
-  </si>
-  <si>
-    <t>|   |-  old_mode : INTEGER</t>
-  </si>
-  <si>
-    <t>|   |-  new_mode : INTEGER</t>
-  </si>
-  <si>
-    <t>|   |-  old_path : STRING</t>
-  </si>
-  <si>
-    <t>|   |-  new_path : STRING</t>
-  </si>
-  <si>
-    <t>|   |-  old_sha1 : STRING</t>
-  </si>
-  <si>
-    <t>|   |-  new_sha1 : STRING</t>
-  </si>
-  <si>
-    <t>|   |-  old_repo : STRING</t>
-  </si>
-  <si>
-    <t>|   |-  new_repo : STRING</t>
+    <t>SQL Field : author_name</t>
+  </si>
+  <si>
+    <t>SQL Field : author_email</t>
+  </si>
+  <si>
+    <t>SQL Field : author_time_sec</t>
+  </si>
+  <si>
+    <t>SQL Field : author_tz_offset</t>
+  </si>
+  <si>
+    <t>SQL Field : author_date</t>
+  </si>
+  <si>
+    <t>SQL Field : committer_name</t>
+  </si>
+  <si>
+    <t>SQL Field : committer_email</t>
+  </si>
+  <si>
+    <t>SQL Field : committer_time_sec</t>
+  </si>
+  <si>
+    <t>SQL Field : committer_tz_offset</t>
+  </si>
+  <si>
+    <t>SQL Field : committer_date</t>
+  </si>
+  <si>
+    <t>SQL Field : trailer_key</t>
+  </si>
+  <si>
+    <t>SQL Field : trailer_value</t>
+  </si>
+  <si>
+    <t>SQL Field : trailer_email</t>
+  </si>
+  <si>
+    <t>SQL Field : difference_old_mode</t>
+  </si>
+  <si>
+    <t>SQL Field : difference_new_mode</t>
+  </si>
+  <si>
+    <t>SQL Field : difference_old_path</t>
+  </si>
+  <si>
+    <t>SQL Field : difference_new_path</t>
+  </si>
+  <si>
+    <t>SQL Field : difference_old_sha1</t>
+  </si>
+  <si>
+    <t>SQL Field : difference_new_sha1</t>
+  </si>
+  <si>
+    <t>SQL Field : difference_old_repo</t>
+  </si>
+  <si>
+    <t>SQL Field : difference_new_repo</t>
+  </si>
+  <si>
+    <t>SCHEMA</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>Same as 'id' of 'files' table / Relation n --&gt; 1</t>
+  </si>
+  <si>
+    <t>Same as 'id' of 'contents' table / Relation 1 --&gt; n</t>
+  </si>
+  <si>
+    <t>Leaf Field / Repeated</t>
+  </si>
+  <si>
+    <t>Suivi des modification</t>
+  </si>
+  <si>
+    <t>Indice</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Rédacteur</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Création du document</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>DAB</t>
+  </si>
+  <si>
+    <t>ADD Tables : commits, contents, files, licenses, sample_commits, sample_contents, sample_files, sample_repos</t>
+  </si>
+  <si>
+    <t>tensorflow/tensorflow
+torvalds/linux
+facebook/react
+apple/swift
+Microsoft/vscode
+twbs/bootstrap</t>
+  </si>
+  <si>
+    <t>Tables github demo : languages, licenses, repos_demo, githubarchive, commits, files, contents</t>
+  </si>
+  <si>
+    <t>|-  type : STRING</t>
+  </si>
+  <si>
+    <t>|-  public : BOOLEAN</t>
+  </si>
+  <si>
+    <t>|- playload : STRING</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">+-  difference : </t>
+      <t xml:space="preserve">+-  repo : </t>
     </r>
     <r>
       <rPr>
@@ -285,140 +391,134 @@
     </r>
   </si>
   <si>
-    <t>SQL Field : author_name</t>
-  </si>
-  <si>
-    <t>SQL Field : author_email</t>
-  </si>
-  <si>
-    <t>SQL Field : author_time_sec</t>
-  </si>
-  <si>
-    <t>SQL Field : author_tz_offset</t>
-  </si>
-  <si>
-    <t>SQL Field : author_date</t>
-  </si>
-  <si>
-    <t>SQL Field : committer_name</t>
-  </si>
-  <si>
-    <t>SQL Field : committer_email</t>
-  </si>
-  <si>
-    <t>SQL Field : committer_time_sec</t>
-  </si>
-  <si>
-    <t>SQL Field : committer_tz_offset</t>
-  </si>
-  <si>
-    <t>SQL Field : committer_date</t>
-  </si>
-  <si>
-    <t>SQL Field : trailer_key</t>
-  </si>
-  <si>
-    <t>SQL Field : trailer_value</t>
-  </si>
-  <si>
-    <t>SQL Field : trailer_email</t>
-  </si>
-  <si>
-    <t>SQL Field : difference_old_mode</t>
-  </si>
-  <si>
-    <t>SQL Field : difference_new_mode</t>
-  </si>
-  <si>
-    <t>SQL Field : difference_old_path</t>
-  </si>
-  <si>
-    <t>SQL Field : difference_new_path</t>
-  </si>
-  <si>
-    <t>SQL Field : difference_old_sha1</t>
-  </si>
-  <si>
-    <t>SQL Field : difference_new_sha1</t>
-  </si>
-  <si>
-    <t>SQL Field : difference_old_repo</t>
-  </si>
-  <si>
-    <t>SQL Field : difference_new_repo</t>
-  </si>
-  <si>
-    <t>|-  watch_count : INTEGER</t>
-  </si>
-  <si>
-    <t>SCHEMA</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
-    <t>Same as 'id' of 'sample_files' table / Relation n --&gt; 1</t>
-  </si>
-  <si>
-    <t>Same as 'id' of 'files' table / Relation n --&gt; 1</t>
-  </si>
-  <si>
-    <t>Same as 'id' of 'contents' table / Relation 1 --&gt; n</t>
-  </si>
-  <si>
-    <t>Same as 'id' of 'sample_contents' table / Relation 1 --&gt; n</t>
-  </si>
-  <si>
-    <t>Leaf Field / Repeated</t>
-  </si>
-  <si>
-    <t>Suivi des modification</t>
-  </si>
-  <si>
-    <t>Indice</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Rédacteur</t>
-  </si>
-  <si>
-    <t>Modification</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Création du document</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>DAB</t>
-  </si>
-  <si>
-    <t>ADD Tables : commits, contents, files, licenses, sample_commits, sample_contents, sample_files, sample_repos</t>
+    <t>|   |-  id : INTEGER</t>
+  </si>
+  <si>
+    <t>SQL Field : repo_id</t>
+  </si>
+  <si>
+    <t>SQL Field : repo_name</t>
+  </si>
+  <si>
+    <t>|   |-  url : STRING</t>
+  </si>
+  <si>
+    <t>SQL Field : repo_url</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+-  actor : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RECORD</t>
+    </r>
+  </si>
+  <si>
+    <t>|   |- id : INTEGER</t>
+  </si>
+  <si>
+    <t>SQL Field : actor_id</t>
+  </si>
+  <si>
+    <t>|   |- login : STRING</t>
+  </si>
+  <si>
+    <t>SQL Field : actor_login</t>
+  </si>
+  <si>
+    <t>|   |- gravatard_id : STRING</t>
+  </si>
+  <si>
+    <t>SQL Field : actor_gavatard_id</t>
+  </si>
+  <si>
+    <t>|   |- avatard_url : STRING</t>
+  </si>
+  <si>
+    <t>SQL Field : actor_avatard_url</t>
+  </si>
+  <si>
+    <t>|   |- url : STRING</t>
+  </si>
+  <si>
+    <t>SQL Field : actor_url</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+-  org : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RECORD</t>
+    </r>
+  </si>
+  <si>
+    <t>SQL Field : org_id</t>
+  </si>
+  <si>
+    <t>SQL Field : org_login</t>
+  </si>
+  <si>
+    <t>SQL Field : org_gavatard_id</t>
+  </si>
+  <si>
+    <t>SQL Field : org_avatard_url</t>
+  </si>
+  <si>
+    <t>SQL Field : org_url</t>
+  </si>
+  <si>
+    <t>|-  created_at : TIMESTAMP</t>
+  </si>
+  <si>
+    <t>|-  other : STRING</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+-  language : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RECORD</t>
+    </r>
+  </si>
+  <si>
+    <t>|   |- bytes : STRING</t>
+  </si>
+  <si>
+    <t>SQL Field : language_name</t>
+  </si>
+  <si>
+    <t>SQL Field : language_bytes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +582,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -738,15 +844,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -759,30 +910,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -792,9 +928,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -804,21 +937,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -827,18 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,230 +1262,236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
+      <c r="A1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="A3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="A4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="12">
         <v>43155</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
+      <c r="C4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="A5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="12">
         <v>43156</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="C5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+      <c r="A6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43162</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
+      <c r="A7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
+      <c r="A8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1388,12 +1500,12 @@
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D6:O6"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="D3:O3"/>
     <mergeCell ref="D4:O4"/>
     <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1401,10 +1513,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,14 +1680,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,7 +1713,7 @@
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1458,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,7 +1762,7 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1507,7 +1771,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,7 +1803,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,10 +1821,10 @@
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1569,7 +1833,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,7 +1841,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,10 +1857,10 @@
       <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1605,7 +1869,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,7 +1877,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,7 +1885,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,7 +1893,7 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,7 +1901,7 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,7 +1909,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,7 +1917,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,7 +1925,7 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1673,8 +1937,8 @@
       <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>91</v>
+      <c r="C33" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -1688,96 +1952,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,14 +1968,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1823,333 +2003,12 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2169,70 +2028,70 @@
   <cols>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2243,109 +2102,187 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. StorageDatas/schemas.xlsx
+++ b/1. StorageDatas/schemas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="suivi" sheetId="9" r:id="rId1"/>
@@ -205,21 +205,6 @@
     <t>|-  copies : INTEGER</t>
   </si>
   <si>
-    <t>|-  sample_repo_name : STRING</t>
-  </si>
-  <si>
-    <t>|-  sample_ref : STRING</t>
-  </si>
-  <si>
-    <t>|-  sample_path : STRING</t>
-  </si>
-  <si>
-    <t>|-  sample_mode : INTEGER</t>
-  </si>
-  <si>
-    <t>|-  sample_symlink_target : STRING</t>
-  </si>
-  <si>
     <t>|-  ref : STRING</t>
   </si>
   <si>
@@ -308,9 +293,6 @@
   </si>
   <si>
     <t>Same as 'id' of 'files' table / Relation n --&gt; 1</t>
-  </si>
-  <si>
-    <t>Same as 'id' of 'contents' table / Relation 1 --&gt; n</t>
   </si>
   <si>
     <t>Leaf Field / Repeated</t>
@@ -364,9 +346,6 @@
   </si>
   <si>
     <t>Tables github demo : languages, licenses, repos_demo, githubarchive, commits, files, contents</t>
-  </si>
-  <si>
-    <t>|-  type : STRING</t>
   </si>
   <si>
     <t>|-  public : BOOLEAN</t>
@@ -512,6 +491,96 @@
   </si>
   <si>
     <t>SQL Field : language_bytes</t>
+  </si>
+  <si>
+    <t>Same as files.mode</t>
+  </si>
+  <si>
+    <t>Same as files.new_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>CommitCommentEvent : commit_id &lt;-&gt; ['commits':commit]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.difference.new_path</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.diffrence.mode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Same as 'id' of '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' table / Relation 1 --&gt; n</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1270,7 +1339,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1306,16 +1375,16 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
@@ -1331,16 +1400,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B4" s="12">
         <v>43155</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -1356,16 +1425,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B5" s="12">
         <v>43156</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -1381,16 +1450,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B6" s="12">
         <v>43162</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -1406,7 +1475,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1425,7 +1494,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -1516,7 +1585,7 @@
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,13 +1598,13 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="77.25" x14ac:dyDescent="0.25">
@@ -1544,7 +1613,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1563,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1576,13 +1645,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1592,7 +1661,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>30</v>
@@ -1606,15 +1675,15 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1639,13 +1708,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1655,7 +1724,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1667,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D22"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,18 +1745,18 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,7 +1848,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,7 +1864,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,7 +1910,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,7 +1938,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,7 +1946,10 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,7 +1957,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1893,7 +1965,10 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,7 +1976,7 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,7 +1984,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1917,7 +1992,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,7 +2000,7 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,7 +2013,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -1956,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,13 +2044,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1985,17 +2060,23 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2003,12 +2084,12 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2018,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D11"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,13 +2114,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -2047,7 +2128,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2068,31 +2149,6 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2104,46 +2160,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>32</v>
@@ -2151,10 +2210,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2162,20 +2221,20 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
@@ -2183,47 +2242,47 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -2231,47 +2290,47 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
         <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -2281,10 +2340,11 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1. StorageDatas/schemas.xlsx
+++ b/1. StorageDatas/schemas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="suivi" sheetId="9" r:id="rId1"/>
@@ -351,9 +351,6 @@
     <t>|-  public : BOOLEAN</t>
   </si>
   <si>
-    <t>|- playload : STRING</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">+-  repo : </t>
     </r>
@@ -581,6 +578,9 @@
       </rPr>
       <t>' table / Relation 1 --&gt; n</t>
     </r>
+  </si>
+  <si>
+    <t>|-  playload : STRING</t>
   </si>
 </sst>
 </file>
@@ -958,6 +958,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1004,15 +1013,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,40 +1338,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1383,20 +1383,20 @@
       <c r="C3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -1408,20 +1408,20 @@
       <c r="C4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -1433,20 +1433,20 @@
       <c r="C5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -1458,20 +1458,20 @@
       <c r="C6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -1479,18 +1479,18 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -1498,83 +1498,83 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
     <mergeCell ref="D6:O6"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="D3:O3"/>
     <mergeCell ref="D4:O4"/>
     <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1585,7 +1585,7 @@
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>30</v>
@@ -1675,15 +1675,15 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1949,7 @@
         <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2068,7 +2068,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2160,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2194,15 +2194,15 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>32</v>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2221,20 +2221,20 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
@@ -2242,47 +2242,47 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
         <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -2290,47 +2290,47 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
